--- a/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oitncsu-my.sharepoint.com/personal/mtseifri_ncsu_edu/Documents/Data-Driven Organic Materials Lab/Projects/Polymer scattering dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\phd-code\PLS-Dataset\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{60BF9DAF-AF4F-4537-9625-C1F54A2B52DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2D49FB8-E730-4135-A4A0-06C163F152F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE7E0B7-CC71-4E5A-A4FE-8523F67F73AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1331,9 +1331,6 @@
     <t>D18-Cl</t>
   </si>
   <si>
-    <t>*c%11cc%10c(c1cc(Cl)c(CC(CC)CCCC)s1)c8sc(c7cc(CC(CCCC)CCCCCC)c(c6cc5c2nsnc2c4cc(c3cc(*)c(CC(CCCC)CCCCCC)s3)sc4c5s6)s7)cc8c(c9cc(Cl)c(CC(CC)CCCC)s9)c%10s%11</t>
-  </si>
-  <si>
     <t>{&lt;c1cc2c(c3cc(Cl)c(CC(CC)CCCC)s3)c3sc(cc3c(c3cc(Cl)c(CC(CC)CCCC)s3)c2s1)c4cc(CC(CCCC)CCCCCC)c(s4)c5cc6c7nsnc7c7cc(sc7c6s5)c8cc(c(CC(CCCC)CCCCCC)s8)&gt;}</t>
   </si>
   <si>
@@ -1887,6 +1884,9 @@
   </si>
   <si>
     <t>CCCCCCCCCCCCC(CCCCCCCCCCCC)n5c1cc(*)c(C(C)=*)cc1c4cc3c(C)cc2cc(*)c(C=*)cc2c3cc45</t>
+  </si>
+  <si>
+    <t>*c1cc2c(-c3cc(Cl)c(CC(CC)CCCC)s3)c3sc(-c4sc(-c5cc6c7nsnc7c7cc(-c8cc(CC(CCCC)CCCCCC)c(*)s8)sc7c6s5)cc4CC(CCCC)CCCCCC)cc3c(-c3cc(Cl)c(CC(CC)CCCC)s3)c2s1</t>
   </si>
 </sst>
 </file>
@@ -1945,10 +1945,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2764,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2871,7 +2867,7 @@
     </row>
     <row r="6" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" t="e" vm="5">
         <v>#VALUE!</v>
@@ -2888,7 +2884,7 @@
     </row>
     <row r="7" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" t="e" vm="5">
         <v>#VALUE!</v>
@@ -3013,7 +3009,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
@@ -3316,7 +3312,7 @@
         <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>99</v>
@@ -3421,52 +3417,52 @@
         <v>#VALUE!</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B39" t="e" vm="36">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="e" vm="37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B40" t="e" vm="37">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" t="e" vm="38">
         <v>#VALUE!</v>
@@ -3483,41 +3479,41 @@
     </row>
     <row r="42" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="e" vm="39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B42" t="e" vm="39">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="e" vm="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B43" t="e" vm="40">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" t="e" vm="41">
         <v>#VALUE!</v>
@@ -3534,75 +3530,75 @@
     </row>
     <row r="45" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="e" vm="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B45" t="e" vm="42">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="e" vm="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B46" t="e" vm="43">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="e" vm="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B47" t="e" vm="44">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="e" vm="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B48" t="e" vm="45">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" t="e" vm="46">
         <v>#VALUE!</v>
@@ -3611,7 +3607,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>48</v>
@@ -3619,855 +3615,855 @@
     </row>
     <row r="50" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" t="e" vm="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B50" t="e" vm="47">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="e" vm="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B51" t="e" vm="48">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="e" vm="49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B52" t="e" vm="49">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="e" vm="50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B53" t="e" vm="50">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" t="e" vm="51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B54" t="e" vm="51">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="e" vm="52">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B55" t="e" vm="52">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="e" vm="53">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B56" t="e" vm="53">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" t="e" vm="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B57" t="e" vm="54">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="e" vm="55">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B58" t="e" vm="55">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" t="e" vm="56">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B59" t="e" vm="56">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="e" vm="57">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B60" t="e" vm="57">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" t="e" vm="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B61" t="e" vm="58">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" t="e" vm="59">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B62" t="e" vm="59">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" t="e" vm="60">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B63" t="e" vm="60">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B64" t="e" vm="61">
         <v>#VALUE!</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B65" t="e" vm="62">
         <v>#VALUE!</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" t="e" vm="63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B66" t="e" vm="63">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" t="e" vm="64">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B67" t="e" vm="64">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" t="e" vm="65">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B68" t="e" vm="65">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="e" vm="66">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B69" t="e" vm="66">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" t="e" vm="67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B70" t="e" vm="67">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" t="e" vm="68">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B71" t="e" vm="68">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" t="e" vm="69">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B72" t="e" vm="69">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" t="e" vm="70">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B73" t="e" vm="70">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="e" vm="71">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B74" t="e" vm="71">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" t="e" vm="72">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B75" t="e" vm="72">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B76" t="e" vm="73">
         <v>#VALUE!</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D76" s="2">
         <v>0</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" t="e" vm="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B77" t="e" vm="44">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" t="e" vm="74">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B78" t="e" vm="74">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" t="e" vm="75">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B79" t="e" vm="75">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" t="e" vm="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B80" t="e" vm="76">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" t="e" vm="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B81" t="e" vm="77">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82" t="e" vm="78">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B82" t="e" vm="78">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B83" t="e" vm="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B83" t="e" vm="79">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="e" vm="80">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B84" t="e" vm="80">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" t="e" vm="81">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B85" t="e" vm="81">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B86" t="e" vm="82">
         <v>#VALUE!</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D86" s="2">
         <v>0</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" t="e" vm="83">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B87" t="e" vm="83">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" t="e" vm="84">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B88" t="e" vm="84">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" t="e" vm="85">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B89" t="e" vm="85">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" t="e" vm="86">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B90" t="e" vm="86">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" t="e" vm="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B91" t="e" vm="87">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" t="e" vm="88">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B92" t="e" vm="88">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" t="e" vm="89">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B93" t="e" vm="89">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" t="e" vm="90">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B94" t="e" vm="90">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" t="e" vm="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B95" t="e" vm="91">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B96" t="e" vm="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B96" t="e" vm="92">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B97" t="s">
+        <v>293</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B97" t="s">
-        <v>294</v>
-      </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D98" s="2">
         <v>0</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" t="e" vm="93">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B99" t="e" vm="93">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\phd-code\PLS-Dataset\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE7E0B7-CC71-4E5A-A4FE-8523F67F73AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9C62A8-2F0B-40C9-B94D-6E9D37ED97D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="304">
   <si>
     <t>Name</t>
   </si>
@@ -1887,6 +1887,9 @@
   </si>
   <si>
     <t>*c1cc2c(-c3cc(Cl)c(CC(CC)CCCC)s3)c3sc(-c4sc(-c5cc6c7nsnc7c7cc(-c8cc(CC(CCCC)CCCCCC)c(*)s8)sc7c6s5)cc4CC(CCCC)CCCCCC)cc3c(-c3cc(Cl)c(CC(CC)CCCC)s3)c2s1</t>
+  </si>
+  <si>
+    <t>[*]C1=CC2=C(C3=C(C(c4sc(CCCCCC)c(CCCCCC)c4)=C2S1)C=C(c5c(CCCCCCCC)cc(c(n6)sc7c6sc(c8sc([*])c(CCCCCCCC)c8)n7)s5)S3)c9sc(CCCCCC)c(CCCCCC)c9</t>
   </si>
 </sst>
 </file>
@@ -2760,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3644,7 +3647,7 @@
         <v>151</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>150</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
